--- a/InputFiles/C3DC/TC03_C3DC_phs002518_Race-Unknown.xlsx
+++ b/InputFiles/C3DC/TC03_C3DC_phs002518_Race-Unknown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DBF1F7-D2C2-2344-8662-068669C8E96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E30E48-FD3C-1442-B3F4-10BBA0F243DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/InputFiles/C3DC/TC03_C3DC_phs002518_Race-Unknown.xlsx
+++ b/InputFiles/C3DC/TC03_C3DC_phs002518_Race-Unknown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/07-15-2025/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E30E48-FD3C-1442-B3F4-10BBA0F243DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA4FFBD-EEA3-0946-9E74-04412EB9C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -84,17 +84,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
    std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown';</t>
   </si>
@@ -105,17 +105,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown'</t>
   </si>
@@ -128,17 +128,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown'
 ORDER BY 
@@ -165,17 +165,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown' AND dgn.diagnosis_id IS NOT NULL
 ORDER BY 
@@ -206,17 +206,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown'
 ORDER BY 
@@ -241,17 +241,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown'
 ORDER BY 
@@ -276,17 +276,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND prt.race = 'Unknown' AND srv.survival_id IS NOT NULL
 ORDER BY 
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
